--- a/deneme.xlsx
+++ b/deneme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eren\Documents\Projects\Python\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FB4914-0F39-4AC2-8D8C-4D583B78466E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F44FDE-527A-4D82-A861-0AE0FF83B218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
     <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -527,10 +527,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
